--- a/biology/Botanique/Urticaceae/Urticaceae.xlsx
+++ b/biology/Botanique/Urticaceae/Urticaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Urticaceae (Les Urticacées) sont une famille de plantes à fleurs de l'ordre des Rosales. Elle comprend près de 2 625 espèces réparties en une soixantaine de genres[1], dont les emblématiques orties (Urtica).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Urticaceae (Les Urticacées) sont une famille de plantes à fleurs de l'ordre des Rosales. Elle comprend près de 2 625 espèces réparties en une soixantaine de genres, dont les emblématiques orties (Urtica).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Urtica, nom latin de l'ortie qui provient de urere (ūro, ĕre, ussi, ustum), brûler, faire brûler, enflammer (la peau), irriter[2],[3], allusion aux poils urticants.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Urtica, nom latin de l'ortie qui provient de urere (ūro, ĕre, ussi, ustum), brûler, faire brûler, enflammer (la peau), irriter allusion aux poils urticants.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[4], la famille des Urticaceae était assignée à l'ordre des Urticales.
-En classification phylogénétique APG II (2003)[5], cette famille fait partie des Rosales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), la famille des Urticaceae était assignée à l'ordre des Urticales.
+En classification phylogénétique APG II (2003), cette famille fait partie des Rosales.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Urticaceae sont généralement des plantes herbacées (Urtica, Parietaria), parfois des arbustes (Pilea), des arbres (Cecropia) ou des lianes[6]. Elles ont des laticifères confinés dans l’écorce et sont recouvertes de poils, certains à cystolithes plus ou moins allongés, d'autres urticants. La disposition des feuilles simples, stipulées et dentées est généralement opposée et elliptique. Les petites fleurs unisexuées sont portées par des plantes monoïques ou dioïques. Elles sont contractées en un cyme bipare (glomérule) regroupée en inflorescence spiciforme, paniculiforme ou en capitule. Elles sont protégées par 4-5 sépales libres. Les filets des étamines sont recourbés dans le bouton et se redressent brutalement à l’anthèse. La pollinisation est anémophile. Le fruit est un akène, parfois une drupe, généralement inclus dans le périanthe accrescent[6].
-C'est la famille des orties (genre Urtica), de la pariétaire officinale (genre Parietaria) et de la ramie (genre Boehmeria), cette dernière cultivée pour la production de fibres textiles et qui s'avère être aussi, en zone tropicale, un excellent fourrage[6].
-La classification phylogénétique APG II (2003)[5] et la classification phylogénétique APG III (2009)[7] situent cette famille dans les Rosales et y incorporent les genres de la famille des Cecropiaceae : Cecropia, Coussapoa, Myrianthus, Musanga, Poikilospermum, Pourouma.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Urticaceae sont généralement des plantes herbacées (Urtica, Parietaria), parfois des arbustes (Pilea), des arbres (Cecropia) ou des lianes. Elles ont des laticifères confinés dans l’écorce et sont recouvertes de poils, certains à cystolithes plus ou moins allongés, d'autres urticants. La disposition des feuilles simples, stipulées et dentées est généralement opposée et elliptique. Les petites fleurs unisexuées sont portées par des plantes monoïques ou dioïques. Elles sont contractées en un cyme bipare (glomérule) regroupée en inflorescence spiciforme, paniculiforme ou en capitule. Elles sont protégées par 4-5 sépales libres. Les filets des étamines sont recourbés dans le bouton et se redressent brutalement à l’anthèse. La pollinisation est anémophile. Le fruit est un akène, parfois une drupe, généralement inclus dans le périanthe accrescent.
+C'est la famille des orties (genre Urtica), de la pariétaire officinale (genre Parietaria) et de la ramie (genre Boehmeria), cette dernière cultivée pour la production de fibres textiles et qui s'avère être aussi, en zone tropicale, un excellent fourrage.
+La classification phylogénétique APG II (2003) et la classification phylogénétique APG III (2009) situent cette famille dans les Rosales et y incorporent les genres de la famille des Cecropiaceae : Cecropia, Coussapoa, Myrianthus, Musanga, Poikilospermum, Pourouma.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une famille cosmopolite dans laquelle les plantes vivent dans des régions tempérées à tropicales. Les espèces sont généralement nitrophiles et rudérales[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une famille cosmopolite dans laquelle les plantes vivent dans des régions tempérées à tropicales. Les espèces sont généralement nitrophiles et rudérales.
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (17 janvier 2018)[9] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 janvier 2018) :
 genre Archiboehmeria
 genre Astrothalamus
 genre Australina
@@ -695,7 +717,7 @@
 genre Urera
 genre Urtica
 genre Zhengyia
-Selon Angiosperm Phylogeny Website                        (17 janvier 2018)[10] :
+Selon Angiosperm Phylogeny Website                        (17 janvier 2018) :
 genre Aboriella Bennet
 genre Achudemia Blume
 genre Archiboehmeria C.J.Chen
@@ -749,7 +771,7 @@
 genre Urera Gaudich.
 genre Urtica L.
 genre Zhengyia T. Deng et al.
-Selon NCBI  (31 mai 2010)[11] :
+Selon NCBI  (31 mai 2010) :
 genre Boehmeria
 genre Cecropia
 genre Coussapoa
@@ -782,7 +804,7 @@
 genre Procris
 genre Urera
 genre Urtica
-Selon DELTA Angio           (17 janvier 2018)[12] :
+Selon DELTA Angio           (17 janvier 2018) :
 genre Aboriella
 genre Achudemia
 genre Archiboehmeria
@@ -828,7 +850,7 @@
 genre Touchardia
 genre Urera
 genre Urtica
-Selon ITIS      (17 janvier 2018)[13] :
+Selon ITIS      (17 janvier 2018) :
 genre Boehmeria Jacq.
 genre Cecropia Loefl.
 genre Cypholophus Wedd.
